--- a/cotacao_btc.xlsx
+++ b/cotacao_btc.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="20370" yWindow="-2715" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -444,11 +444,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89530.52</v>
+        <v>89548.56</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-05 11:06:18</t>
+          <t>2025-03-05 14:30:27</t>
         </is>
       </c>
     </row>
@@ -459,11 +459,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2198.39</v>
+        <v>2195.93</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-05 11:06:19</t>
+          <t>2025-03-05 14:30:28</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,26 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.81</v>
+        <v>143.11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-05 11:06:19</t>
+          <t>2025-03-05 14:30:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>USUAL/USDT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.2009</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:30:28</t>
         </is>
       </c>
     </row>

--- a/cotacao_btc.xlsx
+++ b/cotacao_btc.xlsx
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -444,11 +444,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89548.56</v>
+        <v>89069.05</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-05 14:30:27</t>
+          <t>2025-03-05 14:41:03</t>
         </is>
       </c>
     </row>
@@ -459,11 +459,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2195.93</v>
+        <v>2188.14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-05 14:30:28</t>
+          <t>2025-03-05 14:41:04</t>
         </is>
       </c>
     </row>
@@ -474,26 +474,41 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>143.11</v>
+        <v>142.8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-05 14:30:28</t>
+          <t>2025-03-05 14:41:04</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>SUI/USDT</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.4813</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:41:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>USUAL/USDT</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.2009</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-03-05 14:30:28</t>
+      <c r="B6" t="n">
+        <v>0.2008</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-03-05 14:41:05</t>
         </is>
       </c>
     </row>

--- a/cotacao_btc.xlsx
+++ b/cotacao_btc.xlsx
@@ -408,14 +408,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Planilha1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K12" sqref="F2:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -444,11 +444,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>89069.05</v>
+        <v>88988.00999999999</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-05 14:41:03</t>
+          <t>2025-03-05 15:03:39</t>
         </is>
       </c>
     </row>
@@ -459,11 +459,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2188.14</v>
+        <v>2187.18</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-05 14:41:04</t>
+          <t>2025-03-05 15:03:39</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.8</v>
+        <v>142.45</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-05 14:41:04</t>
+          <t>2025-03-05 15:03:40</t>
         </is>
       </c>
     </row>
@@ -489,11 +489,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.4813</v>
+        <v>2.4971</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-05 14:41:04</t>
+          <t>2025-03-05 15:03:40</t>
         </is>
       </c>
     </row>
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2008</v>
+        <v>0.2018</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-05 14:41:05</t>
+          <t>2025-03-05 15:03:40</t>
         </is>
       </c>
     </row>

--- a/cotacao_btc.xlsx
+++ b/cotacao_btc.xlsx
@@ -444,11 +444,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88988.00999999999</v>
+        <v>88654.05</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-03-05 15:03:39</t>
+          <t>2025-03-05 15:45:47</t>
         </is>
       </c>
     </row>
@@ -459,11 +459,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2187.18</v>
+        <v>2190.69</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-03-05 15:03:39</t>
+          <t>2025-03-05 15:45:47</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>142.45</v>
+        <v>141.71</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-03-05 15:03:40</t>
+          <t>2025-03-05 15:45:48</t>
         </is>
       </c>
     </row>
@@ -489,11 +489,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.4971</v>
+        <v>2.4952</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-03-05 15:03:40</t>
+          <t>2025-03-05 15:45:48</t>
         </is>
       </c>
     </row>
@@ -504,11 +504,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2018</v>
+        <v>0.2005</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-03-05 15:03:40</t>
+          <t>2025-03-05 15:45:48</t>
         </is>
       </c>
     </row>
